--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.767882</v>
+        <v>5.333065333333334</v>
       </c>
       <c r="N2">
-        <v>26.303646</v>
+        <v>15.999196</v>
       </c>
       <c r="O2">
-        <v>0.2073466531282027</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="P2">
-        <v>0.2073466531282026</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="Q2">
-        <v>5.666150218425334</v>
+        <v>0.8728539146644445</v>
       </c>
       <c r="R2">
-        <v>50.99535196582801</v>
+        <v>7.855685231980001</v>
       </c>
       <c r="S2">
-        <v>0.007178031223316353</v>
+        <v>0.001228825391831389</v>
       </c>
       <c r="T2">
-        <v>0.007178031223316354</v>
+        <v>0.00122882539183139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.88867166666666</v>
+        <v>20.88867166666667</v>
       </c>
       <c r="N3">
-        <v>62.66601499999999</v>
+        <v>62.666015</v>
       </c>
       <c r="O3">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455781</v>
       </c>
       <c r="P3">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455783</v>
       </c>
       <c r="Q3">
-        <v>13.49908125208555</v>
+        <v>3.418814077230556</v>
       </c>
       <c r="R3">
-        <v>121.49173126877</v>
+        <v>30.769326695075</v>
       </c>
       <c r="S3">
-        <v>0.0171009985577973</v>
+        <v>0.004813091260141241</v>
       </c>
       <c r="T3">
-        <v>0.01710099855779731</v>
+        <v>0.004813091260141243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.62954966666667</v>
+        <v>11.27340366666667</v>
       </c>
       <c r="N4">
-        <v>37.888649</v>
+        <v>33.820211</v>
       </c>
       <c r="O4">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="P4">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="Q4">
-        <v>8.16171175688689</v>
+        <v>1.845099189117222</v>
       </c>
       <c r="R4">
-        <v>73.455405811982</v>
+        <v>16.605892702055</v>
       </c>
       <c r="S4">
-        <v>0.01033947558187462</v>
+        <v>0.002597576405332822</v>
       </c>
       <c r="T4">
-        <v>0.01033947558187462</v>
+        <v>0.002597576405332822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.767882</v>
+        <v>5.333065333333334</v>
       </c>
       <c r="N5">
-        <v>26.303646</v>
+        <v>15.999196</v>
       </c>
       <c r="O5">
-        <v>0.2073466531282027</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="P5">
-        <v>0.2073466531282026</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="Q5">
-        <v>134.348730274532</v>
+        <v>81.71763214929868</v>
       </c>
       <c r="R5">
-        <v>1209.138572470788</v>
+        <v>735.4586893436881</v>
       </c>
       <c r="S5">
-        <v>0.1701965785495007</v>
+        <v>0.1150441095105806</v>
       </c>
       <c r="T5">
-        <v>0.1701965785495007</v>
+        <v>0.1150441095105806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.88867166666666</v>
+        <v>20.88867166666667</v>
       </c>
       <c r="N6">
-        <v>62.66601499999999</v>
+        <v>62.666015</v>
       </c>
       <c r="O6">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455781</v>
       </c>
       <c r="P6">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455783</v>
       </c>
       <c r="Q6">
-        <v>320.0734813194633</v>
+        <v>320.0734813194634</v>
       </c>
       <c r="R6">
         <v>2880.66133187517</v>
       </c>
       <c r="S6">
-        <v>0.4054776795707973</v>
+        <v>0.4506073862868911</v>
       </c>
       <c r="T6">
-        <v>0.4054776795707974</v>
+        <v>0.4506073862868912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.62954966666667</v>
+        <v>11.27340366666667</v>
       </c>
       <c r="N7">
-        <v>37.888649</v>
+        <v>33.820211</v>
       </c>
       <c r="O7">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="P7">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="Q7">
-        <v>193.5203920006913</v>
+        <v>172.7404028120953</v>
       </c>
       <c r="R7">
-        <v>1741.683528006222</v>
+        <v>1554.663625308858</v>
       </c>
       <c r="S7">
-        <v>0.2451568282839177</v>
+        <v>0.2431882238304313</v>
       </c>
       <c r="T7">
-        <v>0.2451568282839178</v>
+        <v>0.2431882238304313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.767882</v>
+        <v>5.333065333333334</v>
       </c>
       <c r="N8">
-        <v>26.303646</v>
+        <v>15.999196</v>
       </c>
       <c r="O8">
-        <v>0.2073466531282027</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="P8">
-        <v>0.2073466531282026</v>
+        <v>0.1422335064894009</v>
       </c>
       <c r="Q8">
-        <v>23.659147574216</v>
+        <v>18.44020044447378</v>
       </c>
       <c r="R8">
-        <v>212.932328167944</v>
+        <v>165.961804000264</v>
       </c>
       <c r="S8">
-        <v>0.02997204335538562</v>
+        <v>0.02596057158698895</v>
       </c>
       <c r="T8">
-        <v>0.02997204335538562</v>
+        <v>0.02596057158698895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.88867166666666</v>
+        <v>20.88867166666667</v>
       </c>
       <c r="N9">
-        <v>62.66601499999999</v>
+        <v>62.666015</v>
       </c>
       <c r="O9">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455781</v>
       </c>
       <c r="P9">
-        <v>0.4939843121037951</v>
+        <v>0.5571034351455783</v>
       </c>
       <c r="Q9">
-        <v>56.36574096127332</v>
+        <v>72.22699676011223</v>
       </c>
       <c r="R9">
-        <v>507.29166865146</v>
+        <v>650.0429708410101</v>
       </c>
       <c r="S9">
-        <v>0.07140563397520044</v>
+        <v>0.1016829575985458</v>
       </c>
       <c r="T9">
-        <v>0.07140563397520046</v>
+        <v>0.1016829575985458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.62954966666667</v>
+        <v>11.27340366666667</v>
       </c>
       <c r="N10">
-        <v>37.888649</v>
+        <v>33.820211</v>
       </c>
       <c r="O10">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="P10">
-        <v>0.2986690347680022</v>
+        <v>0.3006630583650208</v>
       </c>
       <c r="Q10">
-        <v>34.07942526593734</v>
+        <v>38.98017562347489</v>
       </c>
       <c r="R10">
-        <v>306.7148273934361</v>
+        <v>350.821580611274</v>
       </c>
       <c r="S10">
-        <v>0.04317273090220983</v>
+        <v>0.05487725812925669</v>
       </c>
       <c r="T10">
-        <v>0.04317273090220983</v>
+        <v>0.05487725812925669</v>
       </c>
     </row>
   </sheetData>
